--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn3-Cdon.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H2">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I2">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J2">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N2">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P2">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q2">
-        <v>0.3319153278221111</v>
+        <v>1.323682530078</v>
       </c>
       <c r="R2">
-        <v>2.987237950399</v>
+        <v>11.913142770702</v>
       </c>
       <c r="S2">
-        <v>0.00119931572053851</v>
+        <v>0.004169000560932804</v>
       </c>
       <c r="T2">
-        <v>0.00119931572053851</v>
+        <v>0.004169000560932803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H3">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I3">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J3">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P3">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q3">
-        <v>6.862871120418666</v>
+        <v>11.09325893777866</v>
       </c>
       <c r="R3">
-        <v>61.765840083768</v>
+        <v>99.83933044000797</v>
       </c>
       <c r="S3">
-        <v>0.02479773765422212</v>
+        <v>0.03493874224618412</v>
       </c>
       <c r="T3">
-        <v>0.02479773765422212</v>
+        <v>0.03493874224618411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H4">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I4">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J4">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N4">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P4">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q4">
-        <v>17.77559606505044</v>
+        <v>32.44539204710811</v>
       </c>
       <c r="R4">
-        <v>159.980364585454</v>
+        <v>292.008528423973</v>
       </c>
       <c r="S4">
-        <v>0.0642288861519016</v>
+        <v>0.1021882925629515</v>
       </c>
       <c r="T4">
-        <v>0.06422888615190162</v>
+        <v>0.1021882925629514</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3056536666666667</v>
+        <v>0.4940636666666666</v>
       </c>
       <c r="H5">
-        <v>0.916961</v>
+        <v>1.482191</v>
       </c>
       <c r="I5">
-        <v>0.09028452848253411</v>
+        <v>0.1416906061387336</v>
       </c>
       <c r="J5">
-        <v>0.09028452848253413</v>
+        <v>0.1416906061387335</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N5">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O5">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P5">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q5">
-        <v>0.01621472324755556</v>
+        <v>0.1252785711414444</v>
       </c>
       <c r="R5">
-        <v>0.145932509228</v>
+        <v>1.127507140273</v>
       </c>
       <c r="S5">
-        <v>5.858895587189314E-05</v>
+        <v>0.0003945707686651766</v>
       </c>
       <c r="T5">
-        <v>5.858895587189316E-05</v>
+        <v>0.0003945707686651764</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>2.160221</v>
       </c>
       <c r="H6">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I6">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J6">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N6">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O6">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P6">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q6">
-        <v>2.345826468246333</v>
+        <v>5.787607937453999</v>
       </c>
       <c r="R6">
-        <v>21.112438214217</v>
+        <v>52.08847143708599</v>
       </c>
       <c r="S6">
-        <v>0.008476217653108757</v>
+        <v>0.01822834417576174</v>
       </c>
       <c r="T6">
-        <v>0.008476217653108759</v>
+        <v>0.01822834417576174</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>2.160221</v>
       </c>
       <c r="H7">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I7">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J7">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O7">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P7">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q7">
-        <v>48.50364949421601</v>
+        <v>48.503649494216</v>
       </c>
       <c r="R7">
-        <v>436.532845447944</v>
+        <v>436.5328454479439</v>
       </c>
       <c r="S7">
-        <v>0.1752591232336207</v>
+        <v>0.1527645317920446</v>
       </c>
       <c r="T7">
-        <v>0.1752591232336207</v>
+        <v>0.1527645317920445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>2.160221</v>
       </c>
       <c r="H8">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I8">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J8">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N8">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O8">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P8">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q8">
-        <v>125.6298225570314</v>
+        <v>141.8627233333544</v>
       </c>
       <c r="R8">
-        <v>1130.668403013282</v>
+        <v>1276.764510000189</v>
       </c>
       <c r="S8">
-        <v>0.4539405340203576</v>
+        <v>0.4468033381972329</v>
       </c>
       <c r="T8">
-        <v>0.4539405340203576</v>
+        <v>0.4468033381972328</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>2.160221</v>
       </c>
       <c r="H9">
-        <v>6.480663000000001</v>
+        <v>6.480663</v>
       </c>
       <c r="I9">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446748</v>
       </c>
       <c r="J9">
-        <v>0.6380899549808607</v>
+        <v>0.6195214170446747</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N9">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O9">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P9">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q9">
-        <v>0.1145982839026667</v>
+        <v>0.5477621984543334</v>
       </c>
       <c r="R9">
-        <v>1.031384555124</v>
+        <v>4.929859786089</v>
       </c>
       <c r="S9">
-        <v>0.0004140800737737054</v>
+        <v>0.0017252028796356</v>
       </c>
       <c r="T9">
-        <v>0.0004140800737737055</v>
+        <v>0.001725202879635599</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H10">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I10">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J10">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N10">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O10">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P10">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q10">
-        <v>0.6130461745396666</v>
+        <v>1.998540561995999</v>
       </c>
       <c r="R10">
-        <v>5.517415570857</v>
+        <v>17.986865057964</v>
       </c>
       <c r="S10">
-        <v>0.002215130947298295</v>
+        <v>0.006294497762629921</v>
       </c>
       <c r="T10">
-        <v>0.002215130947298295</v>
+        <v>0.006294497762629921</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H11">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I11">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J11">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O11">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P11">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q11">
-        <v>12.675693268936</v>
+        <v>16.748976773584</v>
       </c>
       <c r="R11">
-        <v>114.081239420424</v>
+        <v>150.740790962256</v>
       </c>
       <c r="S11">
-        <v>0.04580131416620404</v>
+        <v>0.05275169232611052</v>
       </c>
       <c r="T11">
-        <v>0.04580131416620404</v>
+        <v>0.05275169232611052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H12">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I12">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J12">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N12">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O12">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P12">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q12">
-        <v>32.83144903052467</v>
+        <v>48.98714803782067</v>
       </c>
       <c r="R12">
-        <v>295.483041274722</v>
+        <v>440.884332340386</v>
       </c>
       <c r="S12">
-        <v>0.1186304748525205</v>
+        <v>0.154287333259689</v>
       </c>
       <c r="T12">
-        <v>0.1186304748525205</v>
+        <v>0.154287333259689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.564541</v>
+        <v>0.7459539999999999</v>
       </c>
       <c r="H13">
-        <v>1.693623</v>
+        <v>2.237862</v>
       </c>
       <c r="I13">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="J13">
-        <v>0.1667551335140479</v>
+        <v>0.2139292596128559</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N13">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O13">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P13">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q13">
-        <v>0.02994852368933333</v>
+        <v>0.1891498152206667</v>
       </c>
       <c r="R13">
-        <v>0.269536713204</v>
+        <v>1.702348336986</v>
       </c>
       <c r="S13">
-        <v>0.0001082135480250777</v>
+        <v>0.0005957362644265073</v>
       </c>
       <c r="T13">
-        <v>0.0001082135480250777</v>
+        <v>0.0005957362644265072</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H14">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I14">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J14">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1.085919666666667</v>
+        <v>2.679174</v>
       </c>
       <c r="N14">
-        <v>3.257759</v>
+        <v>8.037521999999999</v>
       </c>
       <c r="O14">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="P14">
-        <v>0.01328373466302725</v>
+        <v>0.02942326717729479</v>
       </c>
       <c r="Q14">
-        <v>0.3855376789888889</v>
+        <v>0.232231695378</v>
       </c>
       <c r="R14">
-        <v>3.4698391109</v>
+        <v>2.090085258402</v>
       </c>
       <c r="S14">
-        <v>0.001393070342081688</v>
+        <v>0.000731424677970334</v>
       </c>
       <c r="T14">
-        <v>0.001393070342081688</v>
+        <v>0.0007314246779703339</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H15">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I15">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J15">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>67.35928799999999</v>
       </c>
       <c r="O15">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531156</v>
       </c>
       <c r="P15">
-        <v>0.2746620940598846</v>
+        <v>0.2465847468531155</v>
       </c>
       <c r="Q15">
-        <v>7.971597516533333</v>
+        <v>1.946241845645333</v>
       </c>
       <c r="R15">
-        <v>71.74437764879998</v>
+        <v>17.516176610808</v>
       </c>
       <c r="S15">
-        <v>0.02880391900583773</v>
+        <v>0.00612978048877639</v>
       </c>
       <c r="T15">
-        <v>0.02880391900583774</v>
+        <v>0.006129780488776389</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H16">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I16">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J16">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.15600466666667</v>
+        <v>65.67046766666668</v>
       </c>
       <c r="N16">
-        <v>174.468014</v>
+        <v>197.011403</v>
       </c>
       <c r="O16">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207682</v>
       </c>
       <c r="P16">
-        <v>0.7114052344453117</v>
+        <v>0.7212072511207681</v>
       </c>
       <c r="Q16">
-        <v>20.64732019015555</v>
+        <v>5.692338027502558</v>
       </c>
       <c r="R16">
-        <v>185.8258817114</v>
+        <v>51.23104224752301</v>
       </c>
       <c r="S16">
-        <v>0.07460533942053194</v>
+        <v>0.01792828710089487</v>
       </c>
       <c r="T16">
-        <v>0.07460533942053195</v>
+        <v>0.01792828710089487</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3550333333333333</v>
+        <v>0.08668033333333335</v>
       </c>
       <c r="H17">
-        <v>1.0651</v>
+        <v>0.260041</v>
       </c>
       <c r="I17">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373584</v>
       </c>
       <c r="J17">
-        <v>0.1048703830225572</v>
+        <v>0.02485871720373583</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05304933333333334</v>
+        <v>0.2535676666666667</v>
       </c>
       <c r="N17">
-        <v>0.159148</v>
+        <v>0.760703</v>
       </c>
       <c r="O17">
-        <v>0.0006489368317765253</v>
+        <v>0.002784734848821526</v>
       </c>
       <c r="P17">
-        <v>0.0006489368317765254</v>
+        <v>0.002784734848821525</v>
       </c>
       <c r="Q17">
-        <v>0.01883428164444444</v>
+        <v>0.02197932986922223</v>
       </c>
       <c r="R17">
-        <v>0.1695085348</v>
+        <v>0.197813968823</v>
       </c>
       <c r="S17">
-        <v>6.805425410584897E-05</v>
+        <v>6.922493609424238E-05</v>
       </c>
       <c r="T17">
-        <v>6.8054254105849E-05</v>
+        <v>6.922493609424235E-05</v>
       </c>
     </row>
   </sheetData>
